--- a/resultsPSCC/AVAR/results_A_IEEE_118_syst_AVAR_35_100_0.9_1.0.xlsx
+++ b/resultsPSCC/AVAR/results_A_IEEE_118_syst_AVAR_35_100_0.9_1.0.xlsx
@@ -13,7 +13,7 @@
     <sheet name="results0.9" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$301</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$701</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="10">
   <si>
     <t xml:space="preserve">Instance</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">IEEE254</t>
+    <t xml:space="preserve">IEEE54</t>
   </si>
 </sst>
 </file>
@@ -180,10 +180,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -214,7 +214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -228,22 +228,22 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>51.675479888916</v>
+        <v>26.3496091365814</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1619287.43317318</v>
+        <v>1598355.19282732</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1577284.65786415</v>
+        <v>1581128.11365492</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1575925.30259331</v>
+        <v>1579557.60632295</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -257,22 +257,22 @@
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>199.823579072952</v>
+        <v>39.7932908535004</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1605352.45242205</v>
+        <v>1618532.99487062</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1577857.82403636</v>
+        <v>1576796.6483158</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1576284.50385471</v>
+        <v>1575404.72204119</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -286,22 +286,22 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45.6775000095368</v>
+        <v>72.8390021324158</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1611624.60047101</v>
+        <v>1600138.51513844</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1575982.82577763</v>
+        <v>1580320.93071569</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1574921.09109741</v>
+        <v>1579210.00279961</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -315,22 +315,22 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45.5318019390106</v>
+        <v>25.7166497707367</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1608168.59686839</v>
+        <v>1597420.92458254</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1578749.73585936</v>
+        <v>1580134.32120154</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1577189.28438285</v>
+        <v>1578703.26014916</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -344,22 +344,22 @@
         <v>0.7</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>98.3632628917694</v>
+        <v>46.4068100452423</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1600104.1519535</v>
+        <v>1605183.43735223</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1581931.94116855</v>
+        <v>1580839.96511473</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1580530.45157286</v>
+        <v>1579980.49301872</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -373,22 +373,22 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>48.6646609306335</v>
+        <v>40.7344958782196</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1604073.51707112</v>
+        <v>1596740.46802304</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1580527.32120135</v>
+        <v>1579776.21921362</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1579427.64796015</v>
+        <v>1578200.8931577</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -402,22 +402,22 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>56.3668820858002</v>
+        <v>31.0083200931549</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1605449.08373216</v>
+        <v>1612069.10410827</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1577928.21349353</v>
+        <v>1577705.49839764</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1576779.53494789</v>
+        <v>1576130.98544765</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -431,22 +431,22 @@
         <v>0.7</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>43.1454508304596</v>
+        <v>33.9786140918732</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1609261.42668542</v>
+        <v>1606265.85565309</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1582081.47117145</v>
+        <v>1577937.52954623</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1580628.10404339</v>
+        <v>1576370.39667406</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -460,22 +460,22 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>52.4463031291962</v>
+        <v>28.1231739521027</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1620550.0555983</v>
+        <v>1626215.85630751</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1579207.87737575</v>
+        <v>1579660.86688858</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1577963.06151185</v>
+        <v>1578084.54427864</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,22 +489,22 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>27.0561299324036</v>
+        <v>59.8947021961212</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1597080.40513287</v>
+        <v>1604734.31638874</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1580970.98277452</v>
+        <v>1579699.86694842</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1579431.89009674</v>
+        <v>1578795.68034072</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -518,22 +518,22 @@
         <v>0.7</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>147.553621053696</v>
+        <v>56.0464448928833</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1593896.80336257</v>
+        <v>1588686.25612833</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1580836.92879762</v>
+        <v>1583414.64605712</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1579402.51776963</v>
+        <v>1582746.25809385</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -547,22 +547,22 @@
         <v>0.7</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>492.254643917084</v>
+        <v>99.7286441326141</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1595906.25088035</v>
+        <v>1591934.30232038</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1579604.46351042</v>
+        <v>1579856.84055139</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1578144.7818956</v>
+        <v>1578414.4850021</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,22 +576,22 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>227.251223087311</v>
+        <v>69.5377340316773</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1594340.64440903</v>
+        <v>1592550.55053466</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1581875.57986316</v>
+        <v>1582252.58594211</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1580391.5285458</v>
+        <v>1580856.26050234</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -605,22 +605,22 @@
         <v>0.7</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>399.79242515564</v>
+        <v>68.7857189178467</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1593127.27457869</v>
+        <v>1587593.48775199</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1579565.05915071</v>
+        <v>1581384.82292897</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1578099.63940461</v>
+        <v>1580024.75087186</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,22 +634,22 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>371.498155117035</v>
+        <v>86.051342010498</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1590461.88569132</v>
+        <v>1591444.73571609</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1582877.81054348</v>
+        <v>1583535.22692713</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1581376.62568815</v>
+        <v>1582573.59691754</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -663,22 +663,22 @@
         <v>0.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>274.269694805145</v>
+        <v>98.7782900333405</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1598834.352497</v>
+        <v>1588002.98388598</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1580381.30956051</v>
+        <v>1581107.1292138</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1578859.3888127</v>
+        <v>1579912.91689102</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -692,22 +692,22 @@
         <v>0.7</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>315.020210981369</v>
+        <v>71.5768799781799</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1594225.21646921</v>
+        <v>1595079.62267505</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1581521.10399703</v>
+        <v>1582555.74162624</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1579939.66212743</v>
+        <v>1581232.16770835</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -721,22 +721,22 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>500.745567083359</v>
+        <v>62.4574689865112</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1592086.67944754</v>
+        <v>1593447.22610006</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1581742.7643723</v>
+        <v>1580380.50784952</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1580161.05192626</v>
+        <v>1578838.04488534</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -750,22 +750,22 @@
         <v>0.7</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>110.268301010132</v>
+        <v>64.6818361282349</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1601086.09074259</v>
+        <v>1591342.33869643</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1580677.55657088</v>
+        <v>1582042.62454011</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1579375.67841246</v>
+        <v>1580476.73620844</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -779,22 +779,22 @@
         <v>0.7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>84.8069128990173</v>
+        <v>213.385715007782</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1587858.84772963</v>
+        <v>1594232.25073922</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1581370.67790944</v>
+        <v>1582014.36873254</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1580132.28570052</v>
+        <v>1580473.46898028</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -808,22 +808,22 @@
         <v>0.7</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>131.028384923935</v>
+        <v>102.455370903015</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1588219.69004149</v>
+        <v>1587239.43076924</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1582338.87048099</v>
+        <v>1584402.34108723</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1580763.26865213</v>
+        <v>1582958.37770787</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -837,22 +837,22 @@
         <v>0.7</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>185.536653995514</v>
+        <v>124.728941917419</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1590837.05344243</v>
+        <v>1591661.11647992</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1580941.82206439</v>
+        <v>1581960.77248353</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1579493.91339423</v>
+        <v>1580491.31818521</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,22 +866,22 @@
         <v>0.7</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>290.914352893829</v>
+        <v>118.506510019302</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1589764.13446217</v>
+        <v>1587743.38566072</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1582070.78877151</v>
+        <v>1582728.5064131</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1580494.79333092</v>
+        <v>1581386.20893388</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,22 +895,22 @@
         <v>0.7</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>671.938018083572</v>
+        <v>225.771364927292</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1587344.96017829</v>
+        <v>1586087.244506</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1582718.30912075</v>
+        <v>1583539.35704097</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1581136.39836033</v>
+        <v>1582240.01265745</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -924,22 +924,22 @@
         <v>0.7</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>248.020174026489</v>
+        <v>89.6531460285187</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1587405.1309575</v>
+        <v>1587912.09714686</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1584432.77868691</v>
+        <v>1584227.42891902</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1582986.76101751</v>
+        <v>1582687.03506066</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,22 +953,22 @@
         <v>0.7</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>305.619338989258</v>
+        <v>308.414666891098</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1591118.19628147</v>
+        <v>1585792.77848717</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1580121.33464019</v>
+        <v>1582585.12540145</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1578602.93875185</v>
+        <v>1581131.64631216</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -982,22 +982,22 @@
         <v>0.7</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>358.73352098465</v>
+        <v>380.038156986237</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1594147.14732223</v>
+        <v>1588348.68082758</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1582665.78037683</v>
+        <v>1582530.85564878</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1581090.27743897</v>
+        <v>1580973.81983513</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,22 +1011,22 @@
         <v>0.7</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>177.860741138458</v>
+        <v>116.841753005981</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1588716.96798846</v>
+        <v>1589470.3691623</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1582826.93080005</v>
+        <v>1582885.26229345</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1581292.61351999</v>
+        <v>1581320.79998158</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,22 +1040,22 @@
         <v>0.7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>114.428206920624</v>
+        <v>248.218750953674</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1593660.95334759</v>
+        <v>1587098.58055041</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1581746.68507249</v>
+        <v>1582260.79410361</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1580440.15853655</v>
+        <v>1580705.63353442</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,22 +1069,22 @@
         <v>0.7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>196.213799953461</v>
+        <v>144.105391979218</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1585710.29760603</v>
+        <v>1590770.4909084</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1580911.12429633</v>
+        <v>1582018.43048602</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1579527.66297045</v>
+        <v>1580672.19408977</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1098,22 +1098,22 @@
         <v>0.7</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>290.630494117737</v>
+        <v>137.365046977997</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1585258.80871386</v>
+        <v>1587057.08461611</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1584020.23165941</v>
+        <v>1584961.98518093</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1582536.13440994</v>
+        <v>1583667.84252816</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,22 +1127,22 @@
         <v>0.7</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>192.790921926498</v>
+        <v>123.27299618721</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1591207.08159819</v>
+        <v>1587972.01849333</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1582630.35885906</v>
+        <v>1582785.98701185</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1581136.35607926</v>
+        <v>1581385.18322629</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1156,22 +1156,22 @@
         <v>0.7</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>193.852207899094</v>
+        <v>92.0581920146942</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1586396.91228273</v>
+        <v>1585972.7396261</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1583479.46220463</v>
+        <v>1582555.87074959</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1581993.00335696</v>
+        <v>1581246.22464769</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,22 +1185,22 @@
         <v>0.7</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>635.136777877808</v>
+        <v>107.119520902634</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1585202.04580918</v>
+        <v>1583624.88842918</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1582389.87586289</v>
+        <v>1583674.48086035</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1581196.35982655</v>
+        <v>1582176.25571296</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,22 +1214,22 @@
         <v>0.7</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>493.359059810638</v>
+        <v>133.855880022049</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1585908.8362325</v>
+        <v>1584664.62051861</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1584905.41248132</v>
+        <v>1585156.85839715</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1583397.51065511</v>
+        <v>1584249.7556583</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,22 +1243,22 @@
         <v>0.7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>295.994010210037</v>
+        <v>117.276739120483</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1587397.52153902</v>
+        <v>1585405.55000181</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1581085.63048494</v>
+        <v>1582196.98661144</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1579730.09568762</v>
+        <v>1580785.89841463</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1272,22 +1272,22 @@
         <v>0.7</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>199.271489858627</v>
+        <v>162.490211963654</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1587863.05756509</v>
+        <v>1588115.19048754</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1583201.08023875</v>
+        <v>1583440.64408815</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1581724.79081743</v>
+        <v>1581975.56194897</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,22 +1301,22 @@
         <v>0.7</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>156.448456048965</v>
+        <v>113.840739011765</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1587318.82577413</v>
+        <v>1589517.69506909</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1582511.03046515</v>
+        <v>1582909.49197638</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1581173.76369171</v>
+        <v>1581359.00918052</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,22 +1330,22 @@
         <v>0.7</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>177.314064979553</v>
+        <v>546.798710823059</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1591950.57995064</v>
+        <v>1586449.80866246</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1581462.35661104</v>
+        <v>1581781.84782863</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1580042.71983866</v>
+        <v>1580339.90942924</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1359,22 +1359,22 @@
         <v>0.7</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>408.801228046417</v>
+        <v>112.96581196785</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1585570.28787785</v>
+        <v>1585760.59664571</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1582123.24681557</v>
+        <v>1582863.81179465</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1580568.23912659</v>
+        <v>1581653.80336488</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1388,22 +1388,22 @@
         <v>0.7</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>185.676079034805</v>
+        <v>142.992720842361</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1584778.1958349</v>
+        <v>1585140.30165456</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1583624.90758608</v>
+        <v>1586162.29269925</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1582728.82201282</v>
+        <v>1584820.34535648</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1417,22 +1417,22 @@
         <v>0.7</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>190.643257856369</v>
+        <v>276.009600162506</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1587648.95950205</v>
+        <v>1585059.97956152</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1583489.19250108</v>
+        <v>1583315.80001257</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1581909.71942228</v>
+        <v>1581767.93708</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1446,22 +1446,22 @@
         <v>0.7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>181.713822126389</v>
+        <v>119.61815905571</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1585174.41516508</v>
+        <v>1584339.46536633</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1583416.86356016</v>
+        <v>1584043.66448234</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1582135.48252247</v>
+        <v>1582571.64124307</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1475,22 +1475,22 @@
         <v>0.7</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>275.445957899094</v>
+        <v>128.740231990814</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1585061.33785204</v>
+        <v>1584320.2528837</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1583938.02939762</v>
+        <v>1584061.08023711</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1582847.2764716</v>
+        <v>1582779.1456673</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,22 +1504,22 @@
         <v>0.7</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>1123.87392187119</v>
+        <v>165.831961870194</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1583762.29346374</v>
+        <v>1584319.98072281</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1584870.80694537</v>
+        <v>1585675.53778343</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1583287.3901716</v>
+        <v>1584252.36815704</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,22 +1533,22 @@
         <v>0.7</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>317.419566869736</v>
+        <v>161.487353086472</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1585209.3284605</v>
+        <v>1584137.3347844</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1582745.23170143</v>
+        <v>1582715.55380585</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1581369.75951866</v>
+        <v>1581139.44122957</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1562,22 +1562,22 @@
         <v>0.7</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>933.06924700737</v>
+        <v>102.43786406517</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1586867.35158528</v>
+        <v>1586343.41912259</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1584304.03278451</v>
+        <v>1582895.07379262</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1582831.88700033</v>
+        <v>1581664.39344905</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1591,22 +1591,22 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>228.916480779648</v>
+        <v>139.851341962814</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1586014.02223752</v>
+        <v>1585543.18627409</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1581954.67201424</v>
+        <v>1583598.65501403</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1580981.80115062</v>
+        <v>1582017.34424184</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1620,22 +1620,22 @@
         <v>0.7</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>141.598448991776</v>
+        <v>187.94198012352</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1588513.47928849</v>
+        <v>1584693.58931135</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1583435.52788445</v>
+        <v>1584192.28047654</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1581860.66461859</v>
+        <v>1582617.99380211</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1649,22 +1649,22 @@
         <v>0.7</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>515.102391958237</v>
+        <v>180.316113948822</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1585874.07266994</v>
+        <v>1584602.44508591</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1582611.675007</v>
+        <v>1584108.57931476</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1581213.06266131</v>
+        <v>1582769.19991645</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,22 +1678,22 @@
         <v>0.7</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>206.401531934738</v>
+        <v>153.440920829773</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1584671.71749539</v>
+        <v>1584444.86804617</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1583938.26089016</v>
+        <v>1585878.6178114</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1582468.57723379</v>
+        <v>1584415.91177112</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,22 +1707,22 @@
         <v>0.7</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>269.744160890579</v>
+        <v>260.98094701767</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1586674.45422951</v>
+        <v>1583582.59053303</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1584152.19399947</v>
+        <v>1584084.57678036</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1582773.22995013</v>
+        <v>1582620.47845274</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -1736,22 +1736,22 @@
         <v>0.7</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>1151.53797698021</v>
+        <v>271.484586954117</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1583472.42342319</v>
+        <v>1584580.36341725</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1584433.3554497</v>
+        <v>1584285.20603978</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1583367.42604763</v>
+        <v>1582867.04866174</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1765,22 +1765,22 @@
         <v>0.7</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>237.611704111099</v>
+        <v>190.577569007874</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1585040.35284947</v>
+        <v>1584428.39536318</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1584356.22009025</v>
+        <v>1584141.16550631</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1583037.10413752</v>
+        <v>1582694.24550385</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -1794,22 +1794,22 @@
         <v>0.7</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>566.805956840515</v>
+        <v>130.225018024445</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1583372.13927424</v>
+        <v>1583169.51868649</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1585408.66757103</v>
+        <v>1585355.57145656</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1583846.5196393</v>
+        <v>1583883.147272</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -1823,22 +1823,22 @@
         <v>0.7</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>198.193239927292</v>
+        <v>181.793955087662</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1584542.68375794</v>
+        <v>1582885.76604748</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1583854.32888203</v>
+        <v>1583364.4312644</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1582320.37119615</v>
+        <v>1581949.86197277</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1852,22 +1852,22 @@
         <v>0.7</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>553.960913896561</v>
+        <v>103.602069139481</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1584445.35875818</v>
+        <v>1585155.33736957</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1584808.58997364</v>
+        <v>1584392.84501909</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1583420.68092741</v>
+        <v>1582852.0808776</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -1881,22 +1881,22 @@
         <v>0.7</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>1284.41934609413</v>
+        <v>112.584966897964</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1585626.4564423</v>
+        <v>1582729.46585148</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1582376.81611222</v>
+        <v>1584319.96515612</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1580825.98386767</v>
+        <v>1583018.26615557</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -1910,22 +1910,22 @@
         <v>0.7</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>235.157351016998</v>
+        <v>395.736357927322</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1586368.91343727</v>
+        <v>1584831.97551251</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1583389.11660524</v>
+        <v>1584414.6905594</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1581805.86770455</v>
+        <v>1582849.25983108</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1939,22 +1939,22 @@
         <v>0.7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>145.340821027756</v>
+        <v>142.320680856705</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1583706.75803414</v>
+        <v>1584342.17884734</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1583131.58830007</v>
+        <v>1584157.811283</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1582223.17218999</v>
+        <v>1582819.72017528</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1968,22 +1968,22 @@
         <v>0.7</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>275.999408006668</v>
+        <v>177.01075387001</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1583379.0576462</v>
+        <v>1584274.67556682</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1584003.66235194</v>
+        <v>1585772.5066154</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1582636.16725349</v>
+        <v>1584344.8489297</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -1997,22 +1997,22 @@
         <v>0.7</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>535.185378074646</v>
+        <v>118.415977954865</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1584747.06543826</v>
+        <v>1582950.82409627</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1583505.94492887</v>
+        <v>1584188.23116013</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1582061.42167321</v>
+        <v>1582718.60458546</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -2026,22 +2026,22 @@
         <v>0.7</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>262.86513710022</v>
+        <v>415.130633115768</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1583049.50428097</v>
+        <v>1584033.30818807</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1584911.69396538</v>
+        <v>1584141.33764298</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1583835.05791284</v>
+        <v>1582741.57176537</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -2055,22 +2055,22 @@
         <v>0.7</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>306.053484201431</v>
+        <v>215.495234012604</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1584086.35588515</v>
+        <v>1583728.51401236</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1584383.72384001</v>
+        <v>1584355.75262947</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1583195.61583913</v>
+        <v>1582785.95393982</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -2084,22 +2084,22 @@
         <v>0.7</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>295.60112285614</v>
+        <v>412.460173130035</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1583644.01705122</v>
+        <v>1582746.587084</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1586413.66656117</v>
+        <v>1585331.43577154</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1585100.09177689</v>
+        <v>1583858.93863382</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -2113,22 +2113,22 @@
         <v>0.7</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>301.95823597908</v>
+        <v>167.477490186691</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1584598.11094654</v>
+        <v>1582512.99740189</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1584011.17851396</v>
+        <v>1583325.33646303</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1582449.45779039</v>
+        <v>1581744.08040886</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -2142,22 +2142,22 @@
         <v>0.7</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>846.837420940399</v>
+        <v>107.210510969162</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1583693.80804738</v>
+        <v>1582957.44110178</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1584262.40253375</v>
+        <v>1585588.31035287</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1582731.60743907</v>
+        <v>1584213.27400133</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -2171,22 +2171,22 @@
         <v>0.7</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>265.550055980682</v>
+        <v>183.53110909462</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1584411.33901293</v>
+        <v>1584449.40280641</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1583203.71898824</v>
+        <v>1584312.74100829</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1581887.26885716</v>
+        <v>1582819.85745317</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -2200,22 +2200,22 @@
         <v>0.7</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>234.837226867676</v>
+        <v>194.702805995941</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1585895.37400861</v>
+        <v>1583581.54582942</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1583640.52243639</v>
+        <v>1584947.73923171</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1582334.69004482</v>
+        <v>1583621.43508162</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -2229,22 +2229,22 @@
         <v>0.7</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>240.483911037445</v>
+        <v>209.67159485817</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1583693.83700637</v>
+        <v>1583270.94118297</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1584017.3924446</v>
+        <v>1584198.4301136</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1582441.75974533</v>
+        <v>1582935.93526849</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2258,22 +2258,22 @@
         <v>0.7</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>384.516923904419</v>
+        <v>243.871594905853</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1584536.76641393</v>
+        <v>1583642.45461714</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1584261.83024871</v>
+        <v>1585738.90889083</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1582697.10989467</v>
+        <v>1584188.75351915</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -2287,22 +2287,22 @@
         <v>0.7</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>451.551508188248</v>
+        <v>259.036818027496</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1583653.05530262</v>
+        <v>1582401.60572864</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1584352.93222177</v>
+        <v>1583862.3404933</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1583153.69250798</v>
+        <v>1582763.52461545</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -2316,22 +2316,22 @@
         <v>0.7</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>289.080065965652</v>
+        <v>186.1487159729</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1582985.69565459</v>
+        <v>1581906.91648108</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1585196.39871618</v>
+        <v>1584875.72398893</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1583709.34407228</v>
+        <v>1583508.91529375</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -2345,22 +2345,22 @@
         <v>0.7</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>450.726588964462</v>
+        <v>500.293334960938</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1583590.75087975</v>
+        <v>1583245.24437346</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1585425.93853838</v>
+        <v>1586118.56497632</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1583863.40408585</v>
+        <v>1584871.75997891</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -2374,22 +2374,22 @@
         <v>0.7</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>423.393515110016</v>
+        <v>257.999975919724</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1583416.56249302</v>
+        <v>1581939.90298228</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1586822.17826409</v>
+        <v>1584949.35467014</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1585356.19088025</v>
+        <v>1584095.65450702</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -2403,22 +2403,22 @@
         <v>0.7</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>338.829006195068</v>
+        <v>200.077517032623</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1583506.11203367</v>
+        <v>1582997.78889172</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1583789.56973163</v>
+        <v>1583067.98900208</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1582411.60248578</v>
+        <v>1581633.24650493</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -2432,22 +2432,22 @@
         <v>0.7</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>251.26679110527</v>
+        <v>204.235507965088</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1583580.23389621</v>
+        <v>1582754.49384515</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1584429.23549226</v>
+        <v>1585752.96573362</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1583005.87529938</v>
+        <v>1584304.80172164</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -2461,22 +2461,22 @@
         <v>0.7</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>224.514758110046</v>
+        <v>346.340354919434</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1584839.93436917</v>
+        <v>1582816.89415677</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1583422.51409831</v>
+        <v>1584317.95014585</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1581866.49389145</v>
+        <v>1582779.08042778</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -2490,22 +2490,22 @@
         <v>0.7</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>310.52558016777</v>
+        <v>141.384804010391</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1585115.99059363</v>
+        <v>1583633.16929419</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1583797.69541279</v>
+        <v>1586290.20654243</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1582372.69289592</v>
+        <v>1584825.65961587</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -2519,22 +2519,22 @@
         <v>0.7</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>197.99059510231</v>
+        <v>114.666394233704</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1584216.26780324</v>
+        <v>1582128.24586915</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1584254.78165391</v>
+        <v>1585804.08411495</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1582935.40990601</v>
+        <v>1584880.19115782</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -2548,22 +2548,22 @@
         <v>0.7</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>349.525286912918</v>
+        <v>233.851632118225</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1583808.83921602</v>
+        <v>1583110.39733775</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1583936.26099685</v>
+        <v>1585831.67776625</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1582599.29383156</v>
+        <v>1584246.03853628</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -2577,22 +2577,22 @@
         <v>0.7</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>402.511474847794</v>
+        <v>309.599235057831</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1583148.22396484</v>
+        <v>1583174.93544158</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1584665.06618606</v>
+        <v>1584948.96496</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1583395.77597948</v>
+        <v>1583590.14058033</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -2606,22 +2606,22 @@
         <v>0.7</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>351.925518035889</v>
+        <v>160.133881092072</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1583234.62449166</v>
+        <v>1582216.43240568</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1585776.29567372</v>
+        <v>1585294.23116947</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1584201.61748909</v>
+        <v>1583909.18791111</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -2635,22 +2635,22 @@
         <v>0.7</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>440.894241809845</v>
+        <v>237.185371875763</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583682.08246396</v>
+        <v>1582319.06150405</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1585082.61658559</v>
+        <v>1586176.63325679</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1583726.07026831</v>
+        <v>1584926.62860854</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -2664,22 +2664,22 @@
         <v>0.7</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>366.292528867722</v>
+        <v>369.684058904648</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1583711.24051333</v>
+        <v>1582539.08355203</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1587114.32291307</v>
+        <v>1585480.17581122</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1585592.6494918</v>
+        <v>1584268.73531557</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -2693,22 +2693,22 @@
         <v>0.7</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>251.369572877884</v>
+        <v>198.712501049042</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1584222.79523586</v>
+        <v>1582614.62838121</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1585274.10035829</v>
+        <v>1583268.63109408</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1583749.26893066</v>
+        <v>1582043.78204438</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -2722,22 +2722,22 @@
         <v>0.7</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>287.305572032928</v>
+        <v>359.856101036072</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1583577.29804131</v>
+        <v>1582748.25201619</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1584581.32536843</v>
+        <v>1585898.39026486</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1583105.12536864</v>
+        <v>1584365.04642964</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.7</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>380.689439058304</v>
+        <v>157.322268009186</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1584360.23701621</v>
+        <v>1581976.61356932</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1583891.46920857</v>
+        <v>1584552.93105604</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1582419.93998349</v>
+        <v>1583062.44797193</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -2780,22 +2780,22 @@
         <v>0.7</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>438.248914003372</v>
+        <v>272.106288909912</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1583749.00569536</v>
+        <v>1583806.56691049</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1583631.07980574</v>
+        <v>1586000.41503976</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1582660.79181577</v>
+        <v>1584512.74149172</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -2809,22 +2809,22 @@
         <v>0.7</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>321.471755027771</v>
+        <v>148.809511899948</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1583893.68992449</v>
+        <v>1582444.82708605</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1585004.79015098</v>
+        <v>1586513.37131641</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1583440.90848109</v>
+        <v>1584931.22921247</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -2838,22 +2838,22 @@
         <v>0.7</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>333.747390985489</v>
+        <v>727.818557024002</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1583301.80406441</v>
+        <v>1583489.42066788</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1584676.7399979</v>
+        <v>1585825.87379549</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1583446.6590311</v>
+        <v>1584241.05967689</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -2867,22 +2867,22 @@
         <v>0.7</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>290.262068033218</v>
+        <v>275.901297092438</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1582826.92516366</v>
+        <v>1582077.45013127</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1585056.51506569</v>
+        <v>1585543.22472849</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1583865.38367195</v>
+        <v>1583989.83874724</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -2896,22 +2896,22 @@
         <v>0.7</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>568.646760940552</v>
+        <v>215.079643964767</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1582790.72585158</v>
+        <v>1582155.08367338</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1586304.90013807</v>
+        <v>1585321.49425481</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1584906.13260351</v>
+        <v>1583797.4531837</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -2925,22 +2925,22 @@
         <v>0.7</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>451.18168592453</v>
+        <v>215.02009510994</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1583318.88890309</v>
+        <v>1582057.60436366</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1585625.07229886</v>
+        <v>1586575.64846941</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1584085.90248039</v>
+        <v>1585459.51714398</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -2954,22 +2954,22 @@
         <v>0.7</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>1082.56411504745</v>
+        <v>325.281421899796</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1583084.83504353</v>
+        <v>1582193.50459551</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1587364.38892324</v>
+        <v>1585943.78255849</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1585980.09013105</v>
+        <v>1584384.27033374</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -2983,22 +2983,22 @@
         <v>0.7</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>275.444998979568</v>
+        <v>174.829748153687</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1583563.24228563</v>
+        <v>1582966.35576636</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1585283.53742767</v>
+        <v>1583469.53077564</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1583707.50446877</v>
+        <v>1582088.27311594</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -3012,22 +3012,22 @@
         <v>0.7</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>440.050868034363</v>
+        <v>156.128227949142</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1583946.01777458</v>
+        <v>1581704.97061078</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1584533.58513326</v>
+        <v>1585877.45302149</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1583034.90225976</v>
+        <v>1584362.91072442</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -3041,22 +3041,22 @@
         <v>0.7</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>306.168952941895</v>
+        <v>130.02570104599</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1582941.85528111</v>
+        <v>1582596.04325309</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1584236.71530153</v>
+        <v>1584375.48558562</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1582727.72860975</v>
+        <v>1583176.09769855</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -3070,22 +3070,22 @@
         <v>0.7</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>434.029538154602</v>
+        <v>222.92786693573</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1583932.99580445</v>
+        <v>1583326.55400895</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1583828.08463882</v>
+        <v>1586079.24208089</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1582731.27146926</v>
+        <v>1584511.84982796</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -3099,16 +3099,16 @@
         <v>0.7</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>336.452523946762</v>
+        <v>247.107249975204</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1582938.15810981</v>
+        <v>1581977.88981706</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>1585264.58388847</v>
+        <v>1586174.63952202</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>1583898.40635885</v>
+        <v>1584897.31404353</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>1</v>
@@ -3314,506 +3314,406 @@
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4015,7 +3915,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I301"/>
+  <autoFilter ref="A1:I701"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4032,13 +3932,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4083,16 +3983,16 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>48.9371001720428</v>
+        <v>61.4253480434418</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1616736.46424308</v>
+        <v>1600597.12987225</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1577479.89412903</v>
+        <v>1581913.1149667</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1576215.95835556</v>
+        <v>1580619.7457789</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
@@ -4112,16 +4012,16 @@
         <v>0.8</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>46.3997168540955</v>
+        <v>52.3164520263672</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1602084.58235306</v>
+        <v>1618230.73064825</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1578648.76671107</v>
+        <v>1576873.63905963</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1577386.58244747</v>
+        <v>1576315.48141358</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
@@ -4141,16 +4041,16 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45.5635871887207</v>
+        <v>53.9711270332336</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1619648.2274771</v>
+        <v>1599806.2560433</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1576462.58811772</v>
+        <v>1582345.65385546</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1575388.33911875</v>
+        <v>1580789.09402232</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
@@ -4170,16 +4070,16 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>75.510321855545</v>
+        <v>35.2963330745697</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1610992.19099107</v>
+        <v>1598684.90471597</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1579266.69975567</v>
+        <v>1580357.58705515</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1577820.24863562</v>
+        <v>1579271.50640002</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -4193,22 +4093,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>65.5878810882568</v>
+        <v>53.0007510185242</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1601244.08487744</v>
+        <v>1596334.35702759</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1582375.44897781</v>
+        <v>1579464.76218538</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1581056.22157757</v>
+        <v>1578426.22983302</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -4222,22 +4122,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>41.6052780151367</v>
+        <v>30.8750450611114</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1603539.4019692</v>
+        <v>1613920.01474842</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1581356.99489103</v>
+        <v>1578316.83661918</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1580030.43800241</v>
+        <v>1576739.7642438</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
@@ -4251,22 +4151,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>46.1269679069519</v>
+        <v>43.2189168930054</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1609322.67852055</v>
+        <v>1606873.38441909</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1578603.65728616</v>
+        <v>1578688.36274882</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1577049.40110361</v>
+        <v>1577111.57230475</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
@@ -4280,22 +4180,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>62.2802579402924</v>
+        <v>73.2092020511627</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1614064.42610321</v>
+        <v>1628193.91583422</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1583028.25610641</v>
+        <v>1580455.77346495</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1581538.84113901</v>
+        <v>1579162.24288569</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -4309,22 +4209,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>54.0708258152008</v>
+        <v>26.7657251358032</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1618979.99122898</v>
+        <v>1603542.77551222</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1579431.07041965</v>
+        <v>1580710.12396541</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1578200.90130739</v>
+        <v>1579420.37060843</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -4335,25 +4235,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>66.739058971405</v>
+        <v>65.1350820064545</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1597862.6602172</v>
+        <v>1588948.87792215</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1581186.99906711</v>
+        <v>1584971.26240688</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1579743.45771488</v>
+        <v>1583772.68700264</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
@@ -4367,22 +4267,22 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>466.840672016144</v>
+        <v>57.5812799930573</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1593850.81678603</v>
+        <v>1595782.29911323</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1581388.28231004</v>
+        <v>1580294.54667989</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1579823.38031511</v>
+        <v>1579298.20791597</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
@@ -4396,22 +4296,22 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>317.580065965652</v>
+        <v>46.8411290645599</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1596320.7362918</v>
+        <v>1590886.60872514</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1580258.64668008</v>
+        <v>1582986.92089798</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1578797.7797488</v>
+        <v>1581409.23879785</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -4425,22 +4325,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>373.24929690361</v>
+        <v>78.6676070690155</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1594452.12357534</v>
+        <v>1587210.28968318</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1582946.06301627</v>
+        <v>1582002.83751615</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1581569.28089105</v>
+        <v>1580713.46305411</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -4454,22 +4354,22 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>348.804432153702</v>
+        <v>49.6612570285797</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1592451.96831521</v>
+        <v>1591082.19900965</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1580131.48496625</v>
+        <v>1585738.98947457</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1578992.79615451</v>
+        <v>1584258.85349809</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -4483,22 +4383,22 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>114.113505125046</v>
+        <v>276.613853931427</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1589631.63906048</v>
+        <v>1587798.6600254</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1583439.22094895</v>
+        <v>1581282.93920912</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1581991.42177382</v>
+        <v>1579717.25454666</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -4512,22 +4412,22 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>444.173846006393</v>
+        <v>93.9965121746063</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1594564.35224155</v>
+        <v>1595473.91447459</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1580434.435447</v>
+        <v>1583729.58357714</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1578856.68248463</v>
+        <v>1582158.34210209</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -4541,22 +4441,22 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>76.4353561401367</v>
+        <v>53.3322038650513</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1594660.99896078</v>
+        <v>1593171.38952796</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1583342.65788983</v>
+        <v>1580582.92837988</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1582566.46507592</v>
+        <v>1579451.4008938</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -4570,22 +4470,22 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>111.280722141266</v>
+        <v>44.8974978923798</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1595524.46028022</v>
+        <v>1590417.55692868</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1583433.21345224</v>
+        <v>1582336.48180281</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1581890.54662084</v>
+        <v>1580983.08628618</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -4599,22 +4499,22 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>49.2795779705048</v>
+        <v>74.2825300693512</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1599991.06832916</v>
+        <v>1596464.46401914</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1580975.70968774</v>
+        <v>1583690.75359677</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1580010.46123119</v>
+        <v>1582270.77584594</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
@@ -4625,25 +4525,25 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>414.422516107559</v>
+        <v>295.009141921997</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1588045.57006184</v>
+        <v>1591601.71423485</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1581026.89074185</v>
+        <v>1581932.42106112</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1579704.56848351</v>
+        <v>1580369.89282154</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
@@ -4657,22 +4557,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>120.954282045364</v>
+        <v>98.0580499172211</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1587636.11298956</v>
+        <v>1588143.80275548</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1583511.30537383</v>
+        <v>1583678.45165231</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1582052.1077563</v>
+        <v>1582147.54684891</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
@@ -4686,22 +4586,22 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>248.402339220047</v>
+        <v>119.953330039978</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1591750.50769561</v>
+        <v>1585970.17536854</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1581667.91250374</v>
+        <v>1584862.59775849</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1580210.85737957</v>
+        <v>1583322.55119748</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
@@ -4715,22 +4615,22 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>285.310431957245</v>
+        <v>195.8878262043</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1589095.60605509</v>
+        <v>1587741.61919998</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1582705.7825209</v>
+        <v>1585153.56223048</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1581380.32834251</v>
+        <v>1583844.38455406</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
@@ -4744,22 +4644,22 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>973.341597080231</v>
+        <v>160.427420854569</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1588168.36589116</v>
+        <v>1586729.40080783</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1583647.77709302</v>
+        <v>1583155.93212856</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1582084.96062158</v>
+        <v>1581665.72970728</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
@@ -4773,22 +4673,22 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>130.189966917038</v>
+        <v>124.183054924011</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1587852.88927556</v>
+        <v>1588961.28721594</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1584630.71182897</v>
+        <v>1583333.32751034</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1583623.79669919</v>
+        <v>1582011.51526026</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
@@ -4802,22 +4702,22 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>156.790498971939</v>
+        <v>93.1004638671875</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1593070.43236677</v>
+        <v>1588701.56818296</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1580796.71756078</v>
+        <v>1583003.48967354</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1579241.9992487</v>
+        <v>1582030.02505384</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
@@ -4831,22 +4731,22 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>138.249253988266</v>
+        <v>268.193681955338</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1595754.01411101</v>
+        <v>1589217.70466513</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1584036.6949043</v>
+        <v>1583248.86670793</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1582905.77408412</v>
+        <v>1581754.03666139</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
@@ -4860,22 +4760,22 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>625.482254981995</v>
+        <v>339.031798124313</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1588914.64211423</v>
+        <v>1590584.54311228</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1583037.19393874</v>
+        <v>1582530.31251648</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1581482.68744391</v>
+        <v>1581103.1947746</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -4886,25 +4786,25 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>105.314637899399</v>
+        <v>209.450393915176</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1591585.63741339</v>
+        <v>1587743.90241268</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1582099.8791836</v>
+        <v>1585770.73567333</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1580733.04535809</v>
+        <v>1584604.77800578</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
@@ -4915,25 +4815,25 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>252.829252004623</v>
+        <v>133.902189016342</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1588328.92508448</v>
+        <v>1587186.00488291</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1582036.66668696</v>
+        <v>1583539.68746741</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1580464.21855333</v>
+        <v>1582103.40089524</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -4947,22 +4847,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>295.645128965378</v>
+        <v>148.781662940979</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1584398.16011013</v>
+        <v>1587161.24459771</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1584955.39717428</v>
+        <v>1583417.66590847</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1583384.18238644</v>
+        <v>1581925.94939671</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
@@ -4976,22 +4876,22 @@
         <v>40</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>456.236494779587</v>
+        <v>144.603626012802</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1590239.3070857</v>
+        <v>1584721.98863598</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1582946.41892777</v>
+        <v>1584597.24864644</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1581536.12315016</v>
+        <v>1583167.69861278</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
@@ -5005,22 +4905,22 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>181.885511159897</v>
+        <v>98.7679419517517</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1586228.02211484</v>
+        <v>1584287.55118302</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1584689.33258881</v>
+        <v>1587208.15759919</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1583277.60685992</v>
+        <v>1585724.43732979</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
@@ -5034,22 +4934,22 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>343.607120990753</v>
+        <v>155.318917036057</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1586882.228386</v>
+        <v>1585802.95129266</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1583763.86963368</v>
+        <v>1582796.58007103</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1582367.00854296</v>
+        <v>1581362.4530028</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
@@ -5063,22 +4963,22 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>337.400964021683</v>
+        <v>458.233948945999</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1585345.82621678</v>
+        <v>1588047.95155886</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1585403.34707311</v>
+        <v>1584356.92432987</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1583829.54618663</v>
+        <v>1582772.86276828</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
@@ -5092,22 +4992,22 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>346.512988805771</v>
+        <v>151.002827882767</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1588050.20087298</v>
+        <v>1590128.05960736</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1581786.66485246</v>
+        <v>1583614.88041288</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1580294.46450388</v>
+        <v>1582050.15947316</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
@@ -5121,22 +5021,22 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>541.855683088303</v>
+        <v>81.2875909805298</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1588277.67420028</v>
+        <v>1587814.43011223</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1583920.29370546</v>
+        <v>1583082.55737248</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1582457.67543559</v>
+        <v>1581560.10216692</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
@@ -5150,22 +5050,22 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>362.254231929779</v>
+        <v>172.08741402626</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1586834.88038632</v>
+        <v>1587026.68059932</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1583413.4800244</v>
+        <v>1584396.55659792</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1581881.31295181</v>
+        <v>1582833.61305205</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
@@ -5176,25 +5076,25 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>807.256940126419</v>
+        <v>195.353583097458</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1592745.12237396</v>
+        <v>1585553.21626423</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1581757.02815738</v>
+        <v>1587535.89283908</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1580267.78853361</v>
+        <v>1586072.63620675</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
@@ -5205,25 +5105,25 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>277.960505008698</v>
+        <v>126.566015958786</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1587040.19451989</v>
+        <v>1586002.71817881</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1582473.88820751</v>
+        <v>1584072.86346812</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1581040.45391271</v>
+        <v>1582623.72090932</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
@@ -5237,22 +5137,22 @@
         <v>50</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>188.059681892395</v>
+        <v>359.114451169968</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1584965.84860343</v>
+        <v>1584405.49943691</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1585362.3067358</v>
+        <v>1584564.21370985</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1583839.3393128</v>
+        <v>1583210.70324128</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
@@ -5266,22 +5166,22 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>416.135193824768</v>
+        <v>118.731623888016</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1588484.17132176</v>
+        <v>1584398.54294649</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1584450.21497534</v>
+        <v>1585355.70575072</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1582989.05136915</v>
+        <v>1583853.7276164</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
@@ -5295,22 +5195,22 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>373.78789305687</v>
+        <v>128.21450304985</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1585661.57515589</v>
+        <v>1583625.91096352</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1584176.90883751</v>
+        <v>1587148.69049287</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1582598.09542345</v>
+        <v>1585688.73042042</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
@@ -5324,22 +5224,22 @@
         <v>50</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>317.409603834152</v>
+        <v>178.183084011078</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1586221.19824056</v>
+        <v>1584747.54443058</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1585534.5388428</v>
+        <v>1583132.59513622</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1583952.81286093</v>
+        <v>1581796.49731672</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
@@ -5353,22 +5253,22 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>207.237900972366</v>
+        <v>123.175660848618</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1583763.93434691</v>
+        <v>1586294.14061619</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1586072.79145384</v>
+        <v>1584103.51960764</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1584508.02565058</v>
+        <v>1582627.17682759</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
@@ -5382,22 +5282,22 @@
         <v>50</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>231.895503044128</v>
+        <v>98.4793961048126</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1585653.66376105</v>
+        <v>1584090.88447102</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1583533.15803704</v>
+        <v>1583820.99344054</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1582145.7989476</v>
+        <v>1582545.91888825</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
@@ -5411,22 +5311,22 @@
         <v>50</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>883.898524045944</v>
+        <v>354.442793130875</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1587160.65704631</v>
+        <v>1585442.54148941</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1585446.82592853</v>
+        <v>1585173.36547958</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1583924.1705464</v>
+        <v>1583750.85269829</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
@@ -5440,22 +5340,22 @@
         <v>50</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>501.462827920914</v>
+        <v>369.021792888641</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1586699.07428062</v>
+        <v>1586169.32060725</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1582753.2488531</v>
+        <v>1585228.26995357</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1581260.57618282</v>
+        <v>1583971.60624607</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
@@ -5466,25 +5366,25 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>301.193135976791</v>
+        <v>123.528701066971</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1589099.88746908</v>
+        <v>1584425.9907234</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1584352.32023395</v>
+        <v>1587050.29719609</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1582803.76239321</v>
+        <v>1585487.03658317</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
@@ -5495,25 +5395,25 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>234.092664003372</v>
+        <v>183.79937505722</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1585345.12700468</v>
+        <v>1583942.17828266</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1583244.16818636</v>
+        <v>1585138.87963911</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1581804.64522819</v>
+        <v>1583759.31335799</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
@@ -5527,22 +5427,22 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>235.134366035461</v>
+        <v>237.048742055893</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1584824.8227391</v>
+        <v>1584041.75101517</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1584827.76750059</v>
+        <v>1584822.68303513</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1583436.51447602</v>
+        <v>1583345.31144843</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
@@ -5556,22 +5456,22 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>321.024761915207</v>
+        <v>196.250782966614</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1586815.05592395</v>
+        <v>1584191.48905503</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1585442.51079414</v>
+        <v>1585106.11974128</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1584058.14285372</v>
+        <v>1583726.67672442</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
@@ -5585,22 +5485,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>506.772200107574</v>
+        <v>142.572749137878</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1583978.97964111</v>
+        <v>1582752.40826798</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1585671.57346745</v>
+        <v>1586395.96247175</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1584094.69454214</v>
+        <v>1585187.48002635</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -5614,22 +5514,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>343.633704900742</v>
+        <v>110.236192941666</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1584795.70929293</v>
+        <v>1583342.57284112</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1585025.65722601</v>
+        <v>1583984.15829797</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1583664.28706887</v>
+        <v>1582628.36344817</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
@@ -5643,22 +5543,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>429.338103055954</v>
+        <v>245.549738168716</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1583244.59634835</v>
+        <v>1586000.77492271</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1586277.61191519</v>
+        <v>1585358.50413848</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1584736.84695565</v>
+        <v>1583774.78319934</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -5672,22 +5572,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>283.424530029297</v>
+        <v>154.53782582283</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1585040.61171496</v>
+        <v>1582556.86694391</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1584647.20159944</v>
+        <v>1584521.3672799</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1583160.60252868</v>
+        <v>1583659.53022654</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
@@ -5701,22 +5601,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>1437.93374705315</v>
+        <v>184.36514878273</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1584324.12921013</v>
+        <v>1584486.55581926</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1585736.09513408</v>
+        <v>1585577.76384063</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1584760.56459036</v>
+        <v>1584133.81777985</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
@@ -5730,22 +5630,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>405.684932947159</v>
+        <v>185.450925827026</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1584725.11775757</v>
+        <v>1583368.24262672</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1583234.23265265</v>
+        <v>1585205.05887506</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1581877.4895018</v>
+        <v>1583818.3953419</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
@@ -5756,25 +5656,25 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>597.942873001099</v>
+        <v>294.148005962372</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1586597.821205</v>
+        <v>1583406.47418259</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1583953.08287905</v>
+        <v>1586803.80038607</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1582630.14842226</v>
+        <v>1585401.10741746</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -5785,25 +5685,25 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>249.002954006195</v>
+        <v>285.469881057739</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1584347.77649467</v>
+        <v>1583922.73550359</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1583906.70705862</v>
+        <v>1585201.00320628</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1582981.05538638</v>
+        <v>1583622.50999363</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
@@ -5817,22 +5717,22 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>295.56175994873</v>
+        <v>204.629499912262</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1584168.85682223</v>
+        <v>1582813.9589934</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1585241.64327161</v>
+        <v>1584738.30578802</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1583665.17125492</v>
+        <v>1583710.92132292</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
@@ -5846,22 +5746,22 @@
         <v>70</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>826.040937900543</v>
+        <v>108.631717920303</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1584728.23656007</v>
+        <v>1582878.20137946</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1584643.7561758</v>
+        <v>1585173.05254036</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1583121.84077764</v>
+        <v>1583868.43550953</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
@@ -5875,22 +5775,22 @@
         <v>70</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>1709.96911597252</v>
+        <v>242.909950017929</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1583260.95902135</v>
+        <v>1582817.99808197</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1585904.89597871</v>
+        <v>1586100.87698344</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1584850.61386936</v>
+        <v>1585061.3187415</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
@@ -5904,22 +5804,22 @@
         <v>70</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>380.021646976471</v>
+        <v>174.577724933624</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1584727.26924242</v>
+        <v>1583572.56954231</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1585652.53668581</v>
+        <v>1583948.72933091</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1584187.35524467</v>
+        <v>1582443.75589731</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
@@ -5933,22 +5833,22 @@
         <v>70</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>1202.14814710617</v>
+        <v>211.890276193619</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1583098.80134985</v>
+        <v>1583910.51802</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1587201.25989845</v>
+        <v>1586640.79966081</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1585614.81604755</v>
+        <v>1585209.12821617</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
@@ -5962,22 +5862,22 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>465.540581941605</v>
+        <v>363.930238962173</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1584976.85962094</v>
+        <v>1584438.12139455</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1584712.32603962</v>
+        <v>1584963.55864197</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1583213.81119735</v>
+        <v>1583395.63940851</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -5991,22 +5891,22 @@
         <v>70</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>279.880519151688</v>
+        <v>154.389810085297</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1584285.04919132</v>
+        <v>1585254.94997132</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1583793.30633192</v>
+        <v>1586403.010695</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1582710.43711016</v>
+        <v>1584920.91069212</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
@@ -6020,22 +5920,22 @@
         <v>70</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>469.516891956329</v>
+        <v>246.239972829819</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1586486.27327806</v>
+        <v>1583603.50044792</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1584720.59894097</v>
+        <v>1585390.78722229</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1583174.53018459</v>
+        <v>1583889.29706096</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
@@ -6046,25 +5946,25 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>367.549216985702</v>
+        <v>158.598785161972</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1584277.23346444</v>
+        <v>1585079.15379662</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1584576.06040175</v>
+        <v>1586879.98150373</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1583472.36651233</v>
+        <v>1585298.26759642</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
@@ -6078,22 +5978,22 @@
         <v>80</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>240.700057029724</v>
+        <v>160.55713891983</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1583812.79454791</v>
+        <v>1582679.10482169</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1585191.14524986</v>
+        <v>1584866.4307641</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1583695.72572673</v>
+        <v>1583982.7669735</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
@@ -6107,22 +6007,22 @@
         <v>80</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>298.847759962082</v>
+        <v>289.173607826233</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1584210.6312019</v>
+        <v>1582921.22258232</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1585904.27809377</v>
+        <v>1585726.81427832</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1584542.25625089</v>
+        <v>1584470.47271126</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
@@ -6136,22 +6036,22 @@
         <v>80</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>247.56703209877</v>
+        <v>161.741637945175</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1583781.32818637</v>
+        <v>1582543.15592097</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1586388.81468113</v>
+        <v>1587626.75591595</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1584815.11543687</v>
+        <v>1586129.01232357</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
@@ -6165,22 +6065,22 @@
         <v>80</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>314.109374046326</v>
+        <v>141.985919952393</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1584234.44879499</v>
+        <v>1582250.87818944</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1586354.77274514</v>
+        <v>1586198.49666696</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1585118.74844336</v>
+        <v>1585137.35295789</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
@@ -6194,22 +6094,22 @@
         <v>80</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>1074.18396091461</v>
+        <v>143.93485212326</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1583864.35641983</v>
+        <v>1582649.06093808</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1587859.72025459</v>
+        <v>1583153.62597167</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1586296.24991871</v>
+        <v>1582260.16068159</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
@@ -6223,22 +6123,22 @@
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>423.071252822876</v>
+        <v>340.198179006577</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1584550.40103441</v>
+        <v>1582988.99867041</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1584680.89388275</v>
+        <v>1586861.76311456</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1583110.70381795</v>
+        <v>1585324.32279795</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
@@ -6252,22 +6152,22 @@
         <v>80</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>791.624351024628</v>
+        <v>125.847604990006</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1583864.67835543</v>
+        <v>1582343.87136286</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1585338.3066823</v>
+        <v>1584737.62375274</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1584038.35950464</v>
+        <v>1583488.38036028</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
@@ -6281,22 +6181,22 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>375.162616968155</v>
+        <v>285.911485910416</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1585031.93801694</v>
+        <v>1583706.22489606</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1584185.3550867</v>
+        <v>1587562.27759581</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1582630.69734439</v>
+        <v>1586020.18328546</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
@@ -6310,22 +6210,22 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>523.287438154221</v>
+        <v>212.893083095551</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1585109.25734289</v>
+        <v>1582885.87520274</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1584657.42936342</v>
+        <v>1587409.18482785</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1583413.29085969</v>
+        <v>1585973.91304538</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
@@ -6336,25 +6236,25 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>430.466327905655</v>
+        <v>296.610754966736</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1584830.53637601</v>
+        <v>1583782.79772597</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1585042.51593946</v>
+        <v>1586814.01346405</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1583499.42897977</v>
+        <v>1585337.32874436</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
@@ -6368,22 +6268,22 @@
         <v>90</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>296.429941892624</v>
+        <v>397.416472911835</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1583964.27596311</v>
+        <v>1583855.55016329</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1584882.72433126</v>
+        <v>1586108.61199564</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1583564.17459746</v>
+        <v>1584620.53185003</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
@@ -6397,22 +6297,22 @@
         <v>90</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>284.965626955032</v>
+        <v>304.403893947601</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1583013.70478726</v>
+        <v>1582566.03298419</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1586158.47026109</v>
+        <v>1586552.90468744</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1584651.80087904</v>
+        <v>1584981.68004396</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
@@ -6426,22 +6326,22 @@
         <v>90</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>476.344769001007</v>
+        <v>266.361582994461</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1583276.62487931</v>
+        <v>1582386.99058235</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1586544.41744995</v>
+        <v>1587531.04431334</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1585240.65919619</v>
+        <v>1586157.05552477</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
@@ -6455,22 +6355,22 @@
         <v>90</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>487.706529855728</v>
+        <v>460.28010392189</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1584750.98412743</v>
+        <v>1582303.13832603</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1586469.87941478</v>
+        <v>1586859.78330566</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1584889.47798278</v>
+        <v>1585461.55100273</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
@@ -6484,22 +6384,22 @@
         <v>90</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>939.198056936264</v>
+        <v>232.259277105331</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583148.04845932</v>
+        <v>1582471.72084914</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1587999.34016699</v>
+        <v>1583603.0900238</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1586447.5641022</v>
+        <v>1582915.07395519</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
@@ -6513,22 +6413,22 @@
         <v>90</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>364.134666204452</v>
+        <v>412.184606075287</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1583801.73243896</v>
+        <v>1583285.48260287</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1586012.19440346</v>
+        <v>1586784.40540834</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1584485.52701576</v>
+        <v>1585369.29743795</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
@@ -6542,22 +6442,22 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>1205.11737108231</v>
+        <v>190.871765851975</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1583954.75689339</v>
+        <v>1583142.18304949</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1585449.71514007</v>
+        <v>1585308.14209245</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1584128.53395476</v>
+        <v>1583760.26247231</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
@@ -6571,22 +6471,22 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>426.315068006516</v>
+        <v>253.933908939362</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1584984.29190315</v>
+        <v>1583657.82681221</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1584902.24791618</v>
+        <v>1587360.59758317</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1583323.67706378</v>
+        <v>1585830.07280013</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
@@ -6600,22 +6500,22 @@
         <v>90</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>324.266294956207</v>
+        <v>186.16140294075</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1583341.03769173</v>
+        <v>1582430.78566189</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1584324.73046738</v>
+        <v>1587423.67215766</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1583400.87860679</v>
+        <v>1586031.28319045</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
@@ -6626,25 +6526,25 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>360.561042070389</v>
+        <v>510.321325063705</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1584395.95034441</v>
+        <v>1583462.8751454</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1585665.93953912</v>
+        <v>1586607.46527732</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1584084.22286004</v>
+        <v>1585133.95252059</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
@@ -6658,22 +6558,22 @@
         <v>100</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>955.174870014191</v>
+        <v>233.141117095947</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1584503.93911317</v>
+        <v>1583307.0736417</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1585690.56319009</v>
+        <v>1586448.1640454</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1584127.28901348</v>
+        <v>1584939.58921541</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
@@ -6687,22 +6587,22 @@
         <v>100</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>391.30425286293</v>
+        <v>347.457666873932</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1583652.60769168</v>
+        <v>1582442.33473617</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1586649.47489225</v>
+        <v>1586055.40198503</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1585078.65024011</v>
+        <v>1584839.36991605</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
@@ -6716,22 +6616,22 @@
         <v>100</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>290.957947015762</v>
+        <v>222.23500084877</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1582655.96916484</v>
+        <v>1582626.0034642</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1587128.97100993</v>
+        <v>1588102.92262442</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1586063.74694759</v>
+        <v>1586538.28124419</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
@@ -6745,22 +6645,22 @@
         <v>100</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>610.467935085297</v>
+        <v>418.053489923477</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1584004.30065544</v>
+        <v>1582065.62598825</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1586773.44267894</v>
+        <v>1586752.61284393</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1585254.05925386</v>
+        <v>1585449.18787347</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
@@ -6774,22 +6674,22 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>431.718384027481</v>
+        <v>208.114295959473</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1583075.59152125</v>
+        <v>1582419.52036479</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1588103.32018798</v>
+        <v>1584140.56754096</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1586831.96396198</v>
+        <v>1582568.86157544</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
@@ -6803,22 +6703,22 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>333.768397808075</v>
+        <v>200.873543024063</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1583658.96847889</v>
+        <v>1582843.94733683</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1585847.87327288</v>
+        <v>1586855.71649806</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1584661.97146928</v>
+        <v>1585305.08827975</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
@@ -6832,22 +6732,22 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>500.384960889816</v>
+        <v>219.259970188141</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1584372.4427646</v>
+        <v>1581444.75113246</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1585677.77353979</v>
+        <v>1584622.58887643</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1584108.13864986</v>
+        <v>1583783.01627319</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
@@ -6861,22 +6761,22 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>602.050056934357</v>
+        <v>367.159988880157</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1584276.59824256</v>
+        <v>1583074.59634228</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1585046.21035124</v>
+        <v>1587269.0616695</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1583570.59316168</v>
+        <v>1585765.8272345</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
@@ -6890,53 +6790,24 @@
         <v>100</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>1078.78730201721</v>
+        <v>285.844715833664</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1583907.76684596</v>
+        <v>1582654.98912797</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1584637.01984708</v>
+        <v>1587217.65734055</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1583243.63974351</v>
+        <v>1585859.96538331</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>419.127645969391</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>1584393.1264134</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>1586113.42984933</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>1584539.08513333</v>
-      </c>
-      <c r="I100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6956,13 +6827,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7007,16 +6878,16 @@
         <v>0.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45.6686899662018</v>
+        <v>46.8769488334656</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1617281.95348055</v>
+        <v>1601743.60266861</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1578138.0484858</v>
+        <v>1583555.07116817</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1577062.04650154</v>
+        <v>1582024.01402915</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
@@ -7036,16 +6907,16 @@
         <v>0.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>37.9244349002838</v>
+        <v>29.0065729618073</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1607179.36326459</v>
+        <v>1628495.21945865</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1579211.32478885</v>
+        <v>1578508.31137241</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1578125.41585688</v>
+        <v>1576931.45374058</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
@@ -7065,16 +6936,16 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>81.1608729362488</v>
+        <v>27.2292220592499</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1618618.56740932</v>
+        <v>1605784.66569657</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1576437.71875697</v>
+        <v>1582149.99286093</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1574967.24451403</v>
+        <v>1580570.36281936</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
@@ -7094,16 +6965,16 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>36.5295381546021</v>
+        <v>52.661600112915</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1614943.21533962</v>
+        <v>1601640.77552334</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1580516.82999023</v>
+        <v>1580660.26872381</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1579552.93758751</v>
+        <v>1579682.42397909</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -7123,16 +6994,16 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>80.2550480365753</v>
+        <v>33.3902790546417</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1597703.85473603</v>
+        <v>1607314.76311942</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1582582.99748784</v>
+        <v>1582081.48814747</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1582095.98273358</v>
+        <v>1581586.82075932</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -7152,16 +7023,16 @@
         <v>0.9</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>90.8525729179382</v>
+        <v>45.778580904007</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1604973.46664364</v>
+        <v>1596840.55674549</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1583077.31268784</v>
+        <v>1580160.23197019</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1581721.79685022</v>
+        <v>1578673.23426096</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
@@ -7181,16 +7052,16 @@
         <v>0.9</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>67.2393980026245</v>
+        <v>18.8048501014709</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1608349.66298927</v>
+        <v>1617377.29602794</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1579990.78752494</v>
+        <v>1578548.25356798</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1578507.99180375</v>
+        <v>1577423.17923862</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
@@ -7210,16 +7081,16 @@
         <v>0.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>80.7580308914185</v>
+        <v>47.5884830951691</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1611880.26735206</v>
+        <v>1607331.21491056</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1582920.26675219</v>
+        <v>1578409.25857305</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1581758.76215981</v>
+        <v>1577602.16680738</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -7239,16 +7110,16 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>86.1426210403442</v>
+        <v>59.95663189888</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1619420.20545005</v>
+        <v>1634246.45404749</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1579881.36280298</v>
+        <v>1580973.56524958</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1578447.41202959</v>
+        <v>1579661.56536041</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -7268,16 +7139,16 @@
         <v>0.9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>52.1184649467468</v>
+        <v>68.3333230018616</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1594793.87483031</v>
+        <v>1608130.90093538</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1581243.59788955</v>
+        <v>1583099.57477679</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1579962.64770509</v>
+        <v>1582324.48855212</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
@@ -7297,16 +7168,16 @@
         <v>0.9</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>494.433006048203</v>
+        <v>79.9563150405884</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1595686.48263707</v>
+        <v>1590866.62857925</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1582790.98658359</v>
+        <v>1586122.11403733</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1581558.79363807</v>
+        <v>1584827.20752035</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
@@ -7326,16 +7197,16 @@
         <v>0.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>153.385093927383</v>
+        <v>73.3212008476257</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1598853.98277866</v>
+        <v>1595954.56824536</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1582163.55596619</v>
+        <v>1581416.95906359</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1580696.35537015</v>
+        <v>1580291.75007729</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -7355,16 +7226,16 @@
         <v>0.9</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>102.498139858246</v>
+        <v>89.0590260028839</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1598230.77502162</v>
+        <v>1594118.20074448</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1586560.87000311</v>
+        <v>1583314.09388194</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1585184.8797627</v>
+        <v>1582378.54590779</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -7384,16 +7255,16 @@
         <v>0.9</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>459.487171173096</v>
+        <v>124.000704050064</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1593356.35718748</v>
+        <v>1587295.98232252</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1581005.09393263</v>
+        <v>1582532.62829876</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1579425.65939722</v>
+        <v>1581632.43447764</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -7413,16 +7284,16 @@
         <v>0.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>131.693146944046</v>
+        <v>60.2505321502686</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1592841.62327416</v>
+        <v>1590771.03961256</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1584624.16451816</v>
+        <v>1587721.20223601</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1583097.90878941</v>
+        <v>1586544.38301421</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -7442,16 +7313,16 @@
         <v>0.9</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>808.902974128723</v>
+        <v>336.04513001442</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1599299.16007698</v>
+        <v>1587540.57975101</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1581898.56976905</v>
+        <v>1581505.60565435</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1580319.97104901</v>
+        <v>1579941.12793884</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -7471,16 +7342,16 @@
         <v>0.9</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>109.998883962631</v>
+        <v>76.1176099777222</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1599078.38611242</v>
+        <v>1597386.28061255</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1586818.21921223</v>
+        <v>1584867.71289233</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1585251.01586596</v>
+        <v>1583947.96865397</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -7500,16 +7371,16 @@
         <v>0.9</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>131.074654817581</v>
+        <v>393.88248705864</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1595244.95340913</v>
+        <v>1593335.80831967</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1583936.65689044</v>
+        <v>1581209.58911546</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1582629.42681672</v>
+        <v>1579648.10474622</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -7529,16 +7400,16 @@
         <v>0.9</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>113.541491031647</v>
+        <v>133.087233066559</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1601960.21457482</v>
+        <v>1591309.68454478</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1581855.16970281</v>
+        <v>1583528.24679091</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1580330.69878159</v>
+        <v>1581955.47294595</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
@@ -7558,16 +7429,16 @@
         <v>0.9</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>142.422852039337</v>
+        <v>202.295883893967</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1589421.43670338</v>
+        <v>1597680.24483223</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1582100.67037277</v>
+        <v>1584899.56822147</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1580861.58599634</v>
+        <v>1583529.31785963</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
@@ -7587,16 +7458,16 @@
         <v>0.9</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>223.441012859344</v>
+        <v>89.9868638515472</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1588960.22453401</v>
+        <v>1587785.41763783</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1585334.72111221</v>
+        <v>1586624.34530892</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1583903.35080144</v>
+        <v>1585488.27616232</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
@@ -7616,16 +7487,16 @@
         <v>0.9</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>171.617999076843</v>
+        <v>106.622976064682</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1590901.68927528</v>
+        <v>1590809.55256968</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1582742.14825036</v>
+        <v>1583267.85560833</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1581245.71878418</v>
+        <v>1581821.27967677</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
@@ -7645,16 +7516,16 @@
         <v>0.9</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>703.014730215073</v>
+        <v>129.786207914352</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1589892.90520059</v>
+        <v>1588538.95119849</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1585275.13336645</v>
+        <v>1584529.38368823</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1583753.60485608</v>
+        <v>1583101.61581025</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
@@ -7674,16 +7545,16 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>162.530416965485</v>
+        <v>249.656553030014</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1588715.1973172</v>
+        <v>1585209.85570831</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1585144.80040935</v>
+        <v>1587391.17233589</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1583644.40502573</v>
+        <v>1586441.42251855</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
@@ -7703,16 +7574,16 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>231.084270000458</v>
+        <v>166.231848955154</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1589946.01118197</v>
+        <v>1586894.12934846</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1586345.39464003</v>
+        <v>1587158.44206734</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1584776.63428279</v>
+        <v>1585997.73385688</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
@@ -7732,16 +7603,16 @@
         <v>0.9</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>150.221189022064</v>
+        <v>107.597511053085</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1592030.72900873</v>
+        <v>1586692.62390103</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1581588.17687117</v>
+        <v>1584090.44003489</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1580311.76596459</v>
+        <v>1582575.35211937</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
@@ -7761,16 +7632,16 @@
         <v>0.9</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>186.185675144196</v>
+        <v>187.805981874466</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1600392.43978786</v>
+        <v>1590699.54121502</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1586757.67073558</v>
+        <v>1585242.67762281</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1585265.5155481</v>
+        <v>1583670.43146576</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
@@ -7790,16 +7661,16 @@
         <v>0.9</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>385.418493032455</v>
+        <v>135.009319067001</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1589908.05370215</v>
+        <v>1591611.11319866</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1584537.56949704</v>
+        <v>1584365.83954302</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1582959.19151704</v>
+        <v>1582923.60670454</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -7819,16 +7690,16 @@
         <v>0.9</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>108.929587125778</v>
+        <v>659.881520986557</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1592329.75328713</v>
+        <v>1589356.40554178</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1582459.41979889</v>
+        <v>1584025.81227907</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1581717.12714626</v>
+        <v>1582449.91017957</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
@@ -7848,16 +7719,16 @@
         <v>0.9</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>881.89946603775</v>
+        <v>96.4765770435333</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1586768.32286892</v>
+        <v>1596733.95963504</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1581896.7876553</v>
+        <v>1584912.55696434</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1580354.69032817</v>
+        <v>1583348.22977131</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -7877,16 +7748,16 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>202.066930055618</v>
+        <v>111.088267087936</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1584848.81612861</v>
+        <v>1588824.43408757</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1586118.47992664</v>
+        <v>1587522.93336491</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1585138.30465068</v>
+        <v>1585971.75628083</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
@@ -7906,16 +7777,16 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>153.793157815933</v>
+        <v>596.655657052994</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1592611.04459253</v>
+        <v>1588373.54486526</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1584366.75256966</v>
+        <v>1584779.5477075</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1583328.84471627</v>
+        <v>1583224.09408366</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
@@ -7935,16 +7806,16 @@
         <v>0.9</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>122.463774204254</v>
+        <v>178.596609115601</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1586128.89287887</v>
+        <v>1588538.19502073</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1586387.38792752</v>
+        <v>1584316.45266889</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1585111.89694925</v>
+        <v>1583203.71275381</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
@@ -7964,16 +7835,16 @@
         <v>0.9</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>239.880784034729</v>
+        <v>160.132543087006</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1588158.20312478</v>
+        <v>1584880.45529364</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1585005.38694799</v>
+        <v>1587057.87975793</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1583429.73818668</v>
+        <v>1585630.70970542</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
@@ -7993,16 +7864,16 @@
         <v>0.9</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>831.836399078369</v>
+        <v>160.418823957443</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1587133.28250885</v>
+        <v>1585728.04956464</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1586122.90221673</v>
+        <v>1589454.5811859</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1584569.53791622</v>
+        <v>1588428.28565051</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
@@ -8022,16 +7893,16 @@
         <v>0.9</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>282.501612901688</v>
+        <v>230.029003858566</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1589356.03057347</v>
+        <v>1586968.27893477</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1582725.59674224</v>
+        <v>1583774.66148142</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1581178.75333189</v>
+        <v>1582238.15980759</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
@@ -8051,16 +7922,16 @@
         <v>0.9</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>245.375210046768</v>
+        <v>141.235419988632</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1589075.4146853</v>
+        <v>1589164.6819672</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1586536.81487663</v>
+        <v>1585540.18653987</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1585105.45992695</v>
+        <v>1583958.52811456</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
@@ -8080,16 +7951,16 @@
         <v>0.9</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>324.623892068863</v>
+        <v>141.700423955917</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1587697.8956105</v>
+        <v>1589977.00732268</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1584458.83117573</v>
+        <v>1584023.08557908</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1582991.40314702</v>
+        <v>1582959.65201192</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
@@ -8109,16 +7980,16 @@
         <v>0.9</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>429.698848962784</v>
+        <v>482.281361818314</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1594024.3190565</v>
+        <v>1589180.86264244</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1583056.81587706</v>
+        <v>1583970.17548107</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1581474.64992924</v>
+        <v>1582420.09751448</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
@@ -8138,16 +8009,16 @@
         <v>0.9</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>536.312088012695</v>
+        <v>189.057351112366</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1586747.20493321</v>
+        <v>1588160.3656682</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1583300.63331938</v>
+        <v>1585626.56190914</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1581731.87839966</v>
+        <v>1584091.43160953</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
@@ -8167,16 +8038,16 @@
         <v>0.9</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>480.622355937958</v>
+        <v>159.22102689743</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1585538.97677266</v>
+        <v>1586193.43251684</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1586265.73264262</v>
+        <v>1588772.45409421</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1584703.49749111</v>
+        <v>1587355.65127911</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
@@ -8190,22 +8061,22 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>364.609170913696</v>
+        <v>168.933547973633</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1586100.46943368</v>
+        <v>1586922.0976601</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1586259.46799962</v>
+        <v>1585223.94588224</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1584764.42095597</v>
+        <v>1583941.8163648</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
@@ -8225,16 +8096,16 @@
         <v>0.9</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>242.687165021896</v>
+        <v>155.330898046494</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1586551.54347265</v>
+        <v>1585367.49434732</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1587524.15320099</v>
+        <v>1587552.23496402</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1586043.64317162</v>
+        <v>1586107.5054043</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
@@ -8254,16 +8125,16 @@
         <v>0.9</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>284.612028121948</v>
+        <v>154.931658983231</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1585271.10034014</v>
+        <v>1585025.05469674</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1586473.65967147</v>
+        <v>1589177.15555226</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1585454.19362407</v>
+        <v>1587905.69868349</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
@@ -8283,16 +8154,16 @@
         <v>0.9</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>294.430560111999</v>
+        <v>169.277473926544</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1586265.34251488</v>
+        <v>1584480.10667913</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1584900.29060272</v>
+        <v>1584103.54274561</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1583402.26057809</v>
+        <v>1582563.5242199</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
@@ -8312,16 +8183,16 @@
         <v>0.9</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>235.651657104492</v>
+        <v>136.856886148453</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1589186.70904775</v>
+        <v>1588153.26996217</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1587945.32459185</v>
+        <v>1585216.1388693</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1586449.60962045</v>
+        <v>1583812.46855181</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
@@ -8341,16 +8212,16 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>321.99555516243</v>
+        <v>150.298280000687</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1585406.90591078</v>
+        <v>1586644.3035414</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1584311.17983096</v>
+        <v>1584585.0902465</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1582964.73453633</v>
+        <v>1583491.99314092</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
@@ -8370,16 +8241,16 @@
         <v>0.9</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>220.685404062271</v>
+        <v>433.749652147293</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1589290.59593584</v>
+        <v>1585926.72402158</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1585521.18375517</v>
+        <v>1587308.3224534</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1583948.95769322</v>
+        <v>1586106.5974254</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
@@ -8399,16 +8270,16 @@
         <v>0.9</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>528.158067941666</v>
+        <v>231.517080068588</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1585984.97821013</v>
+        <v>1585644.7791605</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1584526.04094151</v>
+        <v>1587269.02833669</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1582949.45693574</v>
+        <v>1585687.31783885</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
@@ -8428,16 +8299,16 @@
         <v>0.9</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>325.088999986649</v>
+        <v>575.35971903801</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1585844.69850457</v>
+        <v>1585375.99670541</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1586323.80462835</v>
+        <v>1588298.81219314</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1584789.47656152</v>
+        <v>1587207.1565323</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
@@ -8457,16 +8328,16 @@
         <v>0.9</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>284.056291818619</v>
+        <v>235.99077796936</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1585452.82713093</v>
+        <v>1583670.96521351</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1586813.30838228</v>
+        <v>1586689.66030721</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1585672.43481645</v>
+        <v>1585120.21371526</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
@@ -8486,16 +8357,16 @@
         <v>0.9</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>969.327419996262</v>
+        <v>392.905591964722</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1584331.30225158</v>
+        <v>1585153.46157358</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1587020.05558703</v>
+        <v>1586495.63832279</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1585446.9645586</v>
+        <v>1585238.46501243</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
@@ -8515,16 +8386,16 @@
         <v>0.9</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>247.69363284111</v>
+        <v>194.825197935104</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1585305.83760249</v>
+        <v>1584278.24389345</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1587414.11973484</v>
+        <v>1587161.66659444</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1586051.58078478</v>
+        <v>1585784.69491419</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -8544,16 +8415,16 @@
         <v>0.9</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>894.124556064606</v>
+        <v>88.5764839649201</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1584482.3028367</v>
+        <v>1582870.28983742</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1587234.5937442</v>
+        <v>1588687.05374097</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1585647.89113124</v>
+        <v>1587324.24941877</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
@@ -8573,16 +8444,16 @@
         <v>0.9</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>523.875699043274</v>
+        <v>162.634379863739</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1585428.54006487</v>
+        <v>1583226.44372799</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1585943.33434933</v>
+        <v>1584590.09886378</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1584502.89697055</v>
+        <v>1583442.06929847</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -8602,16 +8473,16 @@
         <v>0.9</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>285.150079011917</v>
+        <v>165.292852163315</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1585595.47451386</v>
+        <v>1586599.54314098</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1588448.91627783</v>
+        <v>1586469.82033477</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1587208.92809719</v>
+        <v>1585210.43114813</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
@@ -8631,16 +8502,16 @@
         <v>0.9</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>224.604541778564</v>
+        <v>174.930775165558</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1586220.55371238</v>
+        <v>1584843.61343997</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1584662.15717446</v>
+        <v>1585870.15577969</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1583083.32149641</v>
+        <v>1584493.11249811</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
@@ -8660,16 +8531,16 @@
         <v>0.9</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>430.376881122589</v>
+        <v>147.606356143951</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1587173.40276651</v>
+        <v>1585418.57448629</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1585566.71641975</v>
+        <v>1587284.56143934</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1584152.30632098</v>
+        <v>1586293.67690336</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
@@ -8689,16 +8560,16 @@
         <v>0.9</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>261.661017894745</v>
+        <v>197.556792020798</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1584981.94670308</v>
+        <v>1584408.89243457</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1585685.91728196</v>
+        <v>1586698.04477342</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1584155.0399127</v>
+        <v>1585621.73761672</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -8718,16 +8589,16 @@
         <v>0.9</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>445.031284809113</v>
+        <v>373.275944232941</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1585062.10630086</v>
+        <v>1585498.35190553</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1585954.40096162</v>
+        <v>1588854.2057113</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1584931.56102501</v>
+        <v>1587281.10257184</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
@@ -8747,16 +8618,16 @@
         <v>0.9</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>245.944876909256</v>
+        <v>778.579698085785</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1585384.06349297</v>
+        <v>1583723.73556819</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1586776.12117802</v>
+        <v>1586412.01126166</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1585836.28401554</v>
+        <v>1585052.55632706</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
@@ -8776,16 +8647,16 @@
         <v>0.9</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>379.864974975586</v>
+        <v>1246.83503007889</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1583765.16786011</v>
+        <v>1585374.99623473</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1588032.12855293</v>
+        <v>1586553.63024886</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1586779.56984355</v>
+        <v>1585048.26579646</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
@@ -8805,16 +8676,16 @@
         <v>0.9</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>339.157769918442</v>
+        <v>217.542122840881</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1585610.95739148</v>
+        <v>1583539.5803575</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1587344.55690919</v>
+        <v>1587173.33792418</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1585761.80588542</v>
+        <v>1585762.10542898</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
@@ -8834,16 +8705,16 @@
         <v>0.9</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>542.150581121445</v>
+        <v>187.389713048935</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1583474.91736044</v>
+        <v>1582945.53342868</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1588373.66596625</v>
+        <v>1588049.08173905</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1586875.49338407</v>
+        <v>1587097.78575934</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
@@ -8863,16 +8734,16 @@
         <v>0.9</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>955.331443071365</v>
+        <v>217.495229005814</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1584835.53725835</v>
+        <v>1582983.54607946</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1586079.55284693</v>
+        <v>1584587.2616832</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1584528.71661572</v>
+        <v>1583215.04208542</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
@@ -8892,16 +8763,16 @@
         <v>0.9</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>628.541706085205</v>
+        <v>244.320013999939</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1584168.85351043</v>
+        <v>1585122.26389904</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1587406.59072947</v>
+        <v>1588188.31910195</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1586025.48457817</v>
+        <v>1586992.58729248</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -8921,16 +8792,16 @@
         <v>0.9</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>433.812542915344</v>
+        <v>215.112462997437</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1585597.55975928</v>
+        <v>1584893.7458951</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1585294.95520798</v>
+        <v>1585755.8057446</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1583766.09118759</v>
+        <v>1584367.22419974</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
@@ -8950,16 +8821,16 @@
         <v>0.9</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>570.656148910522</v>
+        <v>290.269036054611</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1587498.24364132</v>
+        <v>1585539.03501992</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1585691.84235385</v>
+        <v>1588188.50147808</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1584112.87581965</v>
+        <v>1586844.16949551</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
@@ -8979,16 +8850,16 @@
         <v>0.9</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>653.27182507515</v>
+        <v>135.219439983368</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1585086.59704828</v>
+        <v>1583913.91125732</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1585891.22479977</v>
+        <v>1587062.70774552</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1584410.11916766</v>
+        <v>1585498.69297567</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
@@ -9008,16 +8879,16 @@
         <v>0.9</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>1020.36294603348</v>
+        <v>311.743582010269</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1585007.3921951</v>
+        <v>1584061.16287799</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1586589.10060055</v>
+        <v>1588546.50560505</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1585008.50238164</v>
+        <v>1587072.16351501</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
@@ -9037,16 +8908,16 @@
         <v>0.9</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>339.565674066544</v>
+        <v>235.172162055969</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1583675.04364423</v>
+        <v>1583430.07218199</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1587127.4957819</v>
+        <v>1586882.73917975</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1586444.28627646</v>
+        <v>1585440.65131794</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
@@ -9066,16 +8937,16 @@
         <v>0.9</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>466.197088003159</v>
+        <v>283.203954935074</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1584037.18841717</v>
+        <v>1583344.14088086</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1587862.20239668</v>
+        <v>1587486.1359474</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1586363.23583109</v>
+        <v>1586030.60273226</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
@@ -9095,16 +8966,16 @@
         <v>0.9</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>374.936501979828</v>
+        <v>176.81325006485</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1584868.8517698</v>
+        <v>1583026.77879654</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1588742.47933378</v>
+        <v>1589334.09441221</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1587287.10909568</v>
+        <v>1588187.53106142</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
@@ -9124,16 +8995,16 @@
         <v>0.9</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>614.21902012825</v>
+        <v>773.106518030167</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1583914.52201265</v>
+        <v>1583320.6135428</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1589144.30732356</v>
+        <v>1588673.16444028</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1587577.8482433</v>
+        <v>1587098.24313639</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
@@ -9153,16 +9024,16 @@
         <v>0.9</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>402.159878015518</v>
+        <v>320.558738946915</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1584142.01378906</v>
+        <v>1583470.51765978</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1585448.6073173</v>
+        <v>1584440.70243352</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1584400.80081178</v>
+        <v>1583068.59430675</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
@@ -9182,16 +9053,16 @@
         <v>0.9</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>549.338330984116</v>
+        <v>188.259569883347</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1584771.71193664</v>
+        <v>1583038.12184514</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1587642.98822622</v>
+        <v>1587907.03611277</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1586092.84097952</v>
+        <v>1586745.79334706</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
@@ -9211,16 +9082,16 @@
         <v>0.9</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>532.163433074951</v>
+        <v>472.083005905151</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1585237.18651923</v>
+        <v>1584194.99322976</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1584904.45169022</v>
+        <v>1585673.52272942</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1583328.56956453</v>
+        <v>1584222.42952101</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
@@ -9240,16 +9111,16 @@
         <v>0.9</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>575.181786060333</v>
+        <v>520.687064886093</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1585754.08473687</v>
+        <v>1584338.69243974</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1585700.08369494</v>
+        <v>1589556.00343598</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1584177.8299662</v>
+        <v>1588105.7168097</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
@@ -9269,16 +9140,16 @@
         <v>0.9</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>1114.62657189369</v>
+        <v>289.639266014099</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1584727.07850305</v>
+        <v>1583169.7750123</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1585794.24027045</v>
+        <v>1588870.70476573</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1584344.23362244</v>
+        <v>1587530.2013223</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
@@ -9298,16 +9169,16 @@
         <v>0.9</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>788.499688148499</v>
+        <v>339.492354154587</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1584439.87319408</v>
+        <v>1583874.86081146</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1586457.97121876</v>
+        <v>1588735.123602</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1584904.73956105</v>
+        <v>1587218.45559431</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
@@ -9327,16 +9198,16 @@
         <v>0.9</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>542.215507030487</v>
+        <v>521.793131113052</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1583845.18201329</v>
+        <v>1583126.69641238</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1587724.50922346</v>
+        <v>1587253.39075307</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1586283.4800932</v>
+        <v>1585993.5530569</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
@@ -9356,16 +9227,16 @@
         <v>0.9</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>327.241536140442</v>
+        <v>1632.92894697189</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1583880.55602239</v>
+        <v>1582532.73618601</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1588418.0816017</v>
+        <v>1587956.28770815</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1586832.26675055</v>
+        <v>1586539.52086344</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
@@ -9385,16 +9256,16 @@
         <v>0.9</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>416.481940984726</v>
+        <v>245.395778179169</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1584745.43885757</v>
+        <v>1583378.4284142</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1588144.21615265</v>
+        <v>1589568.40414733</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1586892.34952895</v>
+        <v>1587984.76235073</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
@@ -9414,16 +9285,16 @@
         <v>0.9</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>696.324246883392</v>
+        <v>690.022991895676</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583578.09996004</v>
+        <v>1582924.54127593</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1589220.74564148</v>
+        <v>1588936.12432963</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1587641.92865658</v>
+        <v>1587401.09885657</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
@@ -9443,16 +9314,16 @@
         <v>0.9</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>355.982961177826</v>
+        <v>211.019531965256</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1584250.1197874</v>
+        <v>1582765.50613252</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1587447.57639303</v>
+        <v>1585124.38265137</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1585873.16013947</v>
+        <v>1583914.81315571</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
@@ -9472,16 +9343,16 @@
         <v>0.9</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>1800.07327103615</v>
+        <v>223.431646108627</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1584832.03327447</v>
+        <v>1583167.61197523</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1587861.87502285</v>
+        <v>1588192.11315238</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1586247.84191184</v>
+        <v>1586730.18199282</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
@@ -9501,16 +9372,16 @@
         <v>0.9</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>533.433778047562</v>
+        <v>249.270749092102</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1584511.11282475</v>
+        <v>1582867.20432598</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1585929.99006596</v>
+        <v>1586050.07144921</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1584716.07676457</v>
+        <v>1584503.34455284</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
@@ -9530,16 +9401,16 @@
         <v>0.9</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>691.283002138138</v>
+        <v>255.351640939713</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1584447.43171614</v>
+        <v>1584612.52716248</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1585847.0889891</v>
+        <v>1589222.07007435</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1584348.81636616</v>
+        <v>1587992.44459982</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
@@ -9559,16 +9430,16 @@
         <v>0.9</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>1119.58617901802</v>
+        <v>544.889939069748</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1584106.51536043</v>
+        <v>1583738.86060567</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1586438.45243292</v>
+        <v>1588984.9358156</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1584852.60245887</v>
+        <v>1587417.09634504</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
@@ -9588,16 +9459,16 @@
         <v>0.9</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>902.296397924423</v>
+        <v>346.397239923477</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1584549.74305059</v>
+        <v>1584183.6907657</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1586845.01332743</v>
+        <v>1588457.11820481</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1585304.06985486</v>
+        <v>1586914.18396578</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
@@ -9617,16 +9488,16 @@
         <v>0.9</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>396.390084028244</v>
+        <v>273.173048973083</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1584023.15818376</v>
+        <v>1583065.00961864</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1588123.52940886</v>
+        <v>1587509.26653735</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1586697.51675205</v>
+        <v>1586261.72113555</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
@@ -9646,16 +9517,16 @@
         <v>0.9</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>444.659820079804</v>
+        <v>714.357809066772</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1583835.78821533</v>
+        <v>1582848.06516254</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1589476.70171092</v>
+        <v>1587941.1786821</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1587887.9905982</v>
+        <v>1586375.56435851</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
@@ -9675,16 +9546,16 @@
         <v>0.9</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>670.691215991974</v>
+        <v>713.732852935791</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1584392.81924106</v>
+        <v>1582795.78746224</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1588730.49738039</v>
+        <v>1589567.18320802</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1587155.52292124</v>
+        <v>1588003.77037683</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
@@ -9704,16 +9575,16 @@
         <v>0.9</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>710.477070093155</v>
+        <v>232.807199001312</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1583417.81377836</v>
+        <v>1582345.07843118</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1588970.26582103</v>
+        <v>1588828.67043935</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1587799.40628556</v>
+        <v>1587523.33429208</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
@@ -9733,16 +9604,16 @@
         <v>0.9</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>577.060297012329</v>
+        <v>207.756955862045</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1584392.84171602</v>
+        <v>1583129.22933288</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1587733.02443049</v>
+        <v>1585028.97084137</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1586154.39209657</v>
+        <v>1583731.77280145</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
@@ -9762,16 +9633,16 @@
         <v>0.9</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>1800.1124048233</v>
+        <v>274.636317014694</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1584635.40618309</v>
+        <v>1583301.25305886</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1587640.89620259</v>
+        <v>1588324.81612589</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1585977.53716906</v>
+        <v>1586765.47126437</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
@@ -9791,16 +9662,16 @@
         <v>0.9</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>671.35767197609</v>
+        <v>336.435808897018</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1584054.13705973</v>
+        <v>1584669.37774726</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1585950.44167326</v>
+        <v>1586135.06526585</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1584824.74579746</v>
+        <v>1584630.3984053</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
@@ -9820,16 +9691,16 @@
         <v>0.9</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>473.559975862503</v>
+        <v>254.683714151382</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1584330.10703896</v>
+        <v>1583998.32760949</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1585760.8488397</v>
+        <v>1588743.12673362</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1584275.48813152</v>
+        <v>1587616.99059342</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
@@ -9849,121 +9720,21 @@
         <v>0.9</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>1800.07390999794</v>
+        <v>529.506983041763</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1585058.82013257</v>
+        <v>1582968.22072534</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1587026.45191899</v>
+        <v>1588887.08875341</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1585331.62624143</v>
+        <v>1587347.38431696</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
